--- a/team_specific_matrix/Wake Forest_B.xlsx
+++ b/team_specific_matrix/Wake Forest_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2124352331606218</v>
+        <v>0.2107438016528926</v>
       </c>
       <c r="C2">
-        <v>0.538860103626943</v>
+        <v>0.5289256198347108</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.005181347150259068</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.155440414507772</v>
+        <v>0.1570247933884298</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08808290155440414</v>
+        <v>0.09917355371900827</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01869158878504673</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02803738317757009</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7663551401869159</v>
+        <v>0.7461538461538462</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1869158878504673</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.03225806451612903</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="P4">
-        <v>0.8064516129032258</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1612903225806452</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06711409395973154</v>
+        <v>0.08152173913043478</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006711409395973154</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="E6">
-        <v>0.006711409395973154</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="F6">
-        <v>0.08053691275167785</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.261744966442953</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02013422818791946</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1208053691275168</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="R6">
-        <v>0.03355704697986577</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="S6">
-        <v>0.4026845637583892</v>
+        <v>0.391304347826087</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09722222222222222</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01388888888888889</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05555555555555555</v>
+        <v>0.07065217391304347</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09027777777777778</v>
+        <v>0.09239130434782608</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006944444444444444</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1875</v>
+        <v>0.2010869565217391</v>
       </c>
       <c r="R7">
-        <v>0.0625</v>
+        <v>0.07065217391304347</v>
       </c>
       <c r="S7">
-        <v>0.4861111111111111</v>
+        <v>0.4456521739130435</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09337349397590361</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02108433734939759</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="E8">
-        <v>0.003012048192771084</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="F8">
-        <v>0.05421686746987952</v>
+        <v>0.05980861244019139</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09939759036144578</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02108433734939759</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1867469879518072</v>
+        <v>0.1722488038277512</v>
       </c>
       <c r="R8">
-        <v>0.0963855421686747</v>
+        <v>0.09330143540669857</v>
       </c>
       <c r="S8">
-        <v>0.4246987951807229</v>
+        <v>0.4401913875598086</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09803921568627451</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006535947712418301</v>
+        <v>0.005</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05882352941176471</v>
+        <v>0.05</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1111111111111111</v>
+        <v>0.11</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03267973856209151</v>
+        <v>0.025</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2352941176470588</v>
+        <v>0.225</v>
       </c>
       <c r="R9">
-        <v>0.05228758169934641</v>
+        <v>0.065</v>
       </c>
       <c r="S9">
-        <v>0.4052287581699346</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0996309963099631</v>
+        <v>0.09313725490196079</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02583025830258303</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="E10">
-        <v>0.001230012300123001</v>
+        <v>0.00196078431372549</v>
       </c>
       <c r="F10">
-        <v>0.06765067650676507</v>
+        <v>0.0607843137254902</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09471094710947109</v>
+        <v>0.1049019607843137</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02091020910209102</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2275522755227552</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="R10">
-        <v>0.06273062730627306</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="S10">
-        <v>0.3997539975399754</v>
+        <v>0.392156862745098</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1058201058201058</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0582010582010582</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="K11">
-        <v>0.1481481481481481</v>
+        <v>0.1434782608695652</v>
       </c>
       <c r="L11">
-        <v>0.671957671957672</v>
+        <v>0.6869565217391305</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01587301587301587</v>
+        <v>0.01304347826086956</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8333333333333334</v>
+        <v>0.8395061728395061</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1287878787878788</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0303030303030303</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.007575757575757576</v>
+        <v>0.006172839506172839</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7419354838709677</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2258064516129032</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03225806451612903</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01666666666666667</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1944444444444444</v>
+        <v>0.1838565022421525</v>
       </c>
       <c r="I15">
-        <v>0.06111111111111111</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="J15">
-        <v>0.3388888888888889</v>
+        <v>0.304932735426009</v>
       </c>
       <c r="K15">
-        <v>0.06666666666666667</v>
+        <v>0.07623318385650224</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02222222222222222</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07222222222222222</v>
+        <v>0.08520179372197309</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2277777777777778</v>
+        <v>0.242152466367713</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007407407407407408</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2666666666666667</v>
+        <v>0.2621951219512195</v>
       </c>
       <c r="I16">
-        <v>0.08888888888888889</v>
+        <v>0.09146341463414634</v>
       </c>
       <c r="J16">
-        <v>0.325925925925926</v>
+        <v>0.3292682926829268</v>
       </c>
       <c r="K16">
-        <v>0.1259259259259259</v>
+        <v>0.1097560975609756</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02962962962962963</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06666666666666667</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08888888888888889</v>
+        <v>0.0975609756097561</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02769230769230769</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1907692307692308</v>
+        <v>0.1862745098039216</v>
       </c>
       <c r="I17">
-        <v>0.1230769230769231</v>
+        <v>0.1225490196078431</v>
       </c>
       <c r="J17">
-        <v>0.3446153846153846</v>
+        <v>0.3676470588235294</v>
       </c>
       <c r="K17">
-        <v>0.09230769230769231</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01538461538461539</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08615384615384615</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.12</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01941747572815534</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.145631067961165</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="I18">
-        <v>0.07766990291262135</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="J18">
-        <v>0.4660194174757282</v>
+        <v>0.4609929078014184</v>
       </c>
       <c r="K18">
-        <v>0.07766990291262135</v>
+        <v>0.07092198581560284</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01941747572815534</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0970873786407767</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0970873786407767</v>
+        <v>0.09929078014184398</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01485714285714286</v>
+        <v>0.01358695652173913</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2148571428571429</v>
+        <v>0.2210144927536232</v>
       </c>
       <c r="I19">
-        <v>0.09485714285714286</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="J19">
-        <v>0.384</v>
+        <v>0.3704710144927536</v>
       </c>
       <c r="K19">
-        <v>0.1062857142857143</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02057142857142857</v>
+        <v>0.02445652173913044</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07885714285714286</v>
+        <v>0.07789855072463768</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08571428571428572</v>
+        <v>0.09057971014492754</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Wake Forest_B.xlsx
+++ b/team_specific_matrix/Wake Forest_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2107438016528926</v>
+        <v>0.2066420664206642</v>
       </c>
       <c r="C2">
-        <v>0.5289256198347108</v>
+        <v>0.5424354243542435</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004132231404958678</v>
+        <v>0.003690036900369004</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1570247933884298</v>
+        <v>0.1586715867158671</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09917355371900827</v>
+        <v>0.08856088560885608</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01538461538461539</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03846153846153846</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7461538461538462</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02857142857142857</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P4">
-        <v>0.8285714285714286</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1428571428571428</v>
+        <v>0.1627906976744186</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08152173913043478</v>
+        <v>0.08</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005434782608695652</v>
+        <v>0.01</v>
       </c>
       <c r="E6">
-        <v>0.005434782608695652</v>
+        <v>0.005</v>
       </c>
       <c r="F6">
-        <v>0.07608695652173914</v>
+        <v>0.075</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2717391304347826</v>
+        <v>0.27</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02717391304347826</v>
+        <v>0.035</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.108695652173913</v>
+        <v>0.105</v>
       </c>
       <c r="R6">
-        <v>0.03260869565217391</v>
+        <v>0.035</v>
       </c>
       <c r="S6">
-        <v>0.391304347826087</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09782608695652174</v>
+        <v>0.1015228426395939</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0108695652173913</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07065217391304347</v>
+        <v>0.07106598984771574</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09239130434782608</v>
+        <v>0.1015228426395939</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0108695652173913</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2010869565217391</v>
+        <v>0.2030456852791878</v>
       </c>
       <c r="R7">
-        <v>0.07065217391304347</v>
+        <v>0.07614213197969544</v>
       </c>
       <c r="S7">
-        <v>0.4456521739130435</v>
+        <v>0.4213197969543147</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1004784688995215</v>
+        <v>0.09787234042553192</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01913875598086124</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="E8">
-        <v>0.004784688995215311</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="F8">
-        <v>0.05980861244019139</v>
+        <v>0.05531914893617021</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09090909090909091</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01913875598086124</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1722488038277512</v>
+        <v>0.1808510638297872</v>
       </c>
       <c r="R8">
-        <v>0.09330143540669857</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="S8">
-        <v>0.4401913875598086</v>
+        <v>0.425531914893617</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.1061946902654867</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05</v>
+        <v>0.04867256637168142</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.11</v>
+        <v>0.1017699115044248</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.025</v>
+        <v>0.03097345132743363</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.225</v>
+        <v>0.2256637168141593</v>
       </c>
       <c r="R9">
-        <v>0.065</v>
+        <v>0.084070796460177</v>
       </c>
       <c r="S9">
-        <v>0.42</v>
+        <v>0.3938053097345133</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09313725490196079</v>
+        <v>0.09200343938091143</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02352941176470588</v>
+        <v>0.02407566638005159</v>
       </c>
       <c r="E10">
-        <v>0.00196078431372549</v>
+        <v>0.001719690455717971</v>
       </c>
       <c r="F10">
-        <v>0.0607843137254902</v>
+        <v>0.05846947549441101</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1049019607843137</v>
+        <v>0.1358555460017197</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0196078431372549</v>
+        <v>0.02235597592433362</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2333333333333333</v>
+        <v>0.2252794496990542</v>
       </c>
       <c r="R10">
-        <v>0.07058823529411765</v>
+        <v>0.07222699914015478</v>
       </c>
       <c r="S10">
-        <v>0.392156862745098</v>
+        <v>0.3680137575236457</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1043478260869565</v>
+        <v>0.09881422924901186</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05217391304347826</v>
+        <v>0.05928853754940711</v>
       </c>
       <c r="K11">
-        <v>0.1434782608695652</v>
+        <v>0.1383399209486166</v>
       </c>
       <c r="L11">
-        <v>0.6869565217391305</v>
+        <v>0.6877470355731226</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01304347826086956</v>
+        <v>0.0158102766798419</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8395061728395061</v>
+        <v>0.8248587570621468</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1296296296296296</v>
+        <v>0.1468926553672316</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02469135802469136</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.006172839506172839</v>
+        <v>0.005649717514124294</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7906976744186046</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.186046511627907</v>
+        <v>0.1914893617021277</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02325581395348837</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0179372197309417</v>
+        <v>0.0199203187250996</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1838565022421525</v>
+        <v>0.1872509960159363</v>
       </c>
       <c r="I15">
-        <v>0.07174887892376682</v>
+        <v>0.07171314741035857</v>
       </c>
       <c r="J15">
-        <v>0.304932735426009</v>
+        <v>0.3147410358565737</v>
       </c>
       <c r="K15">
-        <v>0.07623318385650224</v>
+        <v>0.06772908366533864</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0179372197309417</v>
+        <v>0.01593625498007968</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08520179372197309</v>
+        <v>0.07569721115537849</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.242152466367713</v>
+        <v>0.2470119521912351</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01219512195121951</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2621951219512195</v>
+        <v>0.2513368983957219</v>
       </c>
       <c r="I16">
-        <v>0.09146341463414634</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J16">
-        <v>0.3292682926829268</v>
+        <v>0.3368983957219251</v>
       </c>
       <c r="K16">
-        <v>0.1097560975609756</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03658536585365853</v>
+        <v>0.03208556149732621</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06097560975609756</v>
+        <v>0.06951871657754011</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.0975609756097561</v>
+        <v>0.0855614973262032</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02941176470588235</v>
+        <v>0.02863436123348018</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1862745098039216</v>
+        <v>0.1938325991189427</v>
       </c>
       <c r="I17">
-        <v>0.1225490196078431</v>
+        <v>0.1255506607929515</v>
       </c>
       <c r="J17">
-        <v>0.3676470588235294</v>
+        <v>0.3722466960352423</v>
       </c>
       <c r="K17">
-        <v>0.08823529411764706</v>
+        <v>0.09251101321585903</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01470588235294118</v>
+        <v>0.013215859030837</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07352941176470588</v>
+        <v>0.06828193832599119</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1176470588235294</v>
+        <v>0.105726872246696</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01418439716312057</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.148936170212766</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="I18">
-        <v>0.0851063829787234</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J18">
-        <v>0.4609929078014184</v>
+        <v>0.4404761904761905</v>
       </c>
       <c r="K18">
-        <v>0.07092198581560284</v>
+        <v>0.06547619047619048</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01418439716312057</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1063829787234043</v>
+        <v>0.1130952380952381</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09929078014184398</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01358695652173913</v>
+        <v>0.01357082273112807</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2210144927536232</v>
+        <v>0.2196776929601357</v>
       </c>
       <c r="I19">
-        <v>0.09782608695652174</v>
+        <v>0.1009329940627651</v>
       </c>
       <c r="J19">
-        <v>0.3704710144927536</v>
+        <v>0.368108566581849</v>
       </c>
       <c r="K19">
-        <v>0.1041666666666667</v>
+        <v>0.1043256997455471</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02445652173913044</v>
+        <v>0.02374893977947413</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07789855072463768</v>
+        <v>0.07888040712468193</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09057971014492754</v>
+        <v>0.09075487701441901</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Wake Forest_B.xlsx
+++ b/team_specific_matrix/Wake Forest_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2066420664206642</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C2">
-        <v>0.5424354243542435</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.003690036900369004</v>
+        <v>0.003676470588235294</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1586715867158671</v>
+        <v>0.1580882352941176</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08856088560885608</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01351351351351351</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04054054054054054</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7567567567567568</v>
+        <v>0.7583892617449665</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1891891891891892</v>
+        <v>0.1879194630872483</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="E6">
-        <v>0.005</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="F6">
-        <v>0.075</v>
+        <v>0.08056872037914692</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.27</v>
+        <v>0.2559241706161137</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.035</v>
+        <v>0.03317535545023697</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.105</v>
+        <v>0.1042654028436019</v>
       </c>
       <c r="R6">
-        <v>0.035</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="S6">
-        <v>0.385</v>
+        <v>0.3933649289099526</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1015228426395939</v>
+        <v>0.1019417475728155</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01522842639593909</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07106598984771574</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1015228426395939</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01015228426395939</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2030456852791878</v>
+        <v>0.2038834951456311</v>
       </c>
       <c r="R7">
-        <v>0.07614213197969544</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="S7">
-        <v>0.4213197969543147</v>
+        <v>0.4271844660194175</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09787234042553192</v>
+        <v>0.09484536082474226</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01702127659574468</v>
+        <v>0.01649484536082474</v>
       </c>
       <c r="E8">
-        <v>0.00425531914893617</v>
+        <v>0.004123711340206186</v>
       </c>
       <c r="F8">
-        <v>0.05531914893617021</v>
+        <v>0.0577319587628866</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1063829787234043</v>
+        <v>0.1051546391752577</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01702127659574468</v>
+        <v>0.01649484536082474</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1808510638297872</v>
+        <v>0.1814432989690722</v>
       </c>
       <c r="R8">
-        <v>0.09574468085106383</v>
+        <v>0.09484536082474226</v>
       </c>
       <c r="S8">
-        <v>0.425531914893617</v>
+        <v>0.4288659793814433</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1061946902654867</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008849557522123894</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04867256637168142</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1017699115044248</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03097345132743363</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2256637168141593</v>
+        <v>0.2217391304347826</v>
       </c>
       <c r="R9">
-        <v>0.084070796460177</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="S9">
-        <v>0.3938053097345133</v>
+        <v>0.3956521739130435</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09200343938091143</v>
+        <v>0.08894430590191189</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02407566638005159</v>
+        <v>0.02327514546965919</v>
       </c>
       <c r="E10">
-        <v>0.001719690455717971</v>
+        <v>0.001662510390689942</v>
       </c>
       <c r="F10">
-        <v>0.05846947549441101</v>
+        <v>0.0598503740648379</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1358555460017197</v>
+        <v>0.1346633416458853</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02235597592433362</v>
+        <v>0.02244389027431421</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2252794496990542</v>
+        <v>0.227763923524522</v>
       </c>
       <c r="R10">
-        <v>0.07222699914015478</v>
+        <v>0.07564422277639235</v>
       </c>
       <c r="S10">
-        <v>0.3680137575236457</v>
+        <v>0.3657522859517872</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.09881422924901186</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05928853754940711</v>
+        <v>0.05725190839694656</v>
       </c>
       <c r="K11">
-        <v>0.1383399209486166</v>
+        <v>0.1374045801526718</v>
       </c>
       <c r="L11">
-        <v>0.6877470355731226</v>
+        <v>0.6908396946564885</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0158102766798419</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8248587570621468</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1468926553672316</v>
+        <v>0.1467391304347826</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02259887005649718</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.005649717514124294</v>
+        <v>0.005434782608695652</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7872340425531915</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1914893617021277</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02127659574468085</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0199203187250996</v>
+        <v>0.01945525291828794</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1872509960159363</v>
+        <v>0.1828793774319066</v>
       </c>
       <c r="I15">
-        <v>0.07171314741035857</v>
+        <v>0.07003891050583658</v>
       </c>
       <c r="J15">
-        <v>0.3147410358565737</v>
+        <v>0.3151750972762646</v>
       </c>
       <c r="K15">
-        <v>0.06772908366533864</v>
+        <v>0.07003891050583658</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01593625498007968</v>
+        <v>0.01556420233463035</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07569721115537849</v>
+        <v>0.07782101167315175</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2470119521912351</v>
+        <v>0.2490272373540856</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0160427807486631</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2513368983957219</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="I16">
-        <v>0.09090909090909091</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="J16">
-        <v>0.3368983957219251</v>
+        <v>0.3351063829787234</v>
       </c>
       <c r="K16">
-        <v>0.1176470588235294</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03208556149732621</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06951871657754011</v>
+        <v>0.06914893617021277</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.0855614973262032</v>
+        <v>0.0851063829787234</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02863436123348018</v>
+        <v>0.02754237288135593</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1938325991189427</v>
+        <v>0.1906779661016949</v>
       </c>
       <c r="I17">
-        <v>0.1255506607929515</v>
+        <v>0.125</v>
       </c>
       <c r="J17">
-        <v>0.3722466960352423</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="K17">
-        <v>0.09251101321585903</v>
+        <v>0.09533898305084745</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.013215859030837</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06828193832599119</v>
+        <v>0.06991525423728813</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.105726872246696</v>
+        <v>0.1059322033898305</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01785714285714286</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1785714285714286</v>
+        <v>0.1853932584269663</v>
       </c>
       <c r="I18">
-        <v>0.08333333333333333</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="J18">
-        <v>0.4404761904761905</v>
+        <v>0.4438202247191011</v>
       </c>
       <c r="K18">
-        <v>0.06547619047619048</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01785714285714286</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1130952380952381</v>
+        <v>0.1067415730337079</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08333333333333333</v>
+        <v>0.08426966292134831</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01357082273112807</v>
+        <v>0.01394585726004922</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2196776929601357</v>
+        <v>0.2206726825266612</v>
       </c>
       <c r="I19">
-        <v>0.1009329940627651</v>
+        <v>0.0992616899097621</v>
       </c>
       <c r="J19">
-        <v>0.368108566581849</v>
+        <v>0.3707957342083675</v>
       </c>
       <c r="K19">
-        <v>0.1043256997455471</v>
+        <v>0.103363412633306</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02374893977947413</v>
+        <v>0.02625102543068089</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07888040712468193</v>
+        <v>0.07629204265791632</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09075487701441901</v>
+        <v>0.08941755537325677</v>
       </c>
     </row>
   </sheetData>
